--- a/biology/Médecine/Immanuel_Velikovsky/Immanuel_Velikovsky.xlsx
+++ b/biology/Médecine/Immanuel_Velikovsky/Immanuel_Velikovsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Immanuel Velikovsky est un psychiatre et écrivain russe (né à Vitebsk, Empire russe, le 10 juin 1895 (22 juin dans le calendrier grégorien) et mort à Princeton, États-Unis, le 17 novembre 1979). Après des études de médecine (en partie suivies à Montpellier), il exerce à Moscou. Puis il émigre en Palestine, où il vit jusqu'en 1939 avant de s'établir à Princeton ; il y meurt en 1979.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses travaux, en tant que psychiatre, portent sur le phénomène de l'amnésie collective.
 </t>
@@ -544,10 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les prémices de sa théorie
-Durant ses études et un séjour à Vienne, il assiste au débat entre Sigmund Freud et Karl Abraham au sujet des ressemblances entre l'Œdipe légendaire et le pharaon Akhénaton historique. Durant son séjour en Palestine, il écrit Œdipe et Akhnaton, qui identifie un même personnage sous les deux noms. Il émigre alors à New York en vue de la publication du livre ; mais ses éditeurs le pressent de faire passer en priorité les textes sur l'astronomie. Œdipe et Akhnaton sera donc retardé tandis que les thèses astronomiques rencontrent un grand succès populaire et déclenchent le conflit déploré par Carl Sagan.
-Mondes en collision
-En 1940, Immanuel Velikovsky compare les chronologies des civilisations égyptienne et hébraïque. Ces deux civilisations contemporaines lui semblent en effet avoir peu d'événements en commun. Il décide de prendre comme point de repère l'Exode, et s'attache à retrouver cet évènement dans l'histoire de ces deux civilisations.
+          <t>Les prémices de sa théorie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant ses études et un séjour à Vienne, il assiste au débat entre Sigmund Freud et Karl Abraham au sujet des ressemblances entre l'Œdipe légendaire et le pharaon Akhénaton historique. Durant son séjour en Palestine, il écrit Œdipe et Akhnaton, qui identifie un même personnage sous les deux noms. Il émigre alors à New York en vue de la publication du livre ; mais ses éditeurs le pressent de faire passer en priorité les textes sur l'astronomie. Œdipe et Akhnaton sera donc retardé tandis que les thèses astronomiques rencontrent un grand succès populaire et déclenchent le conflit déploré par Carl Sagan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Immanuel_Velikovsky</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immanuel_Velikovsky</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sa théorie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mondes en collision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1940, Immanuel Velikovsky compare les chronologies des civilisations égyptienne et hébraïque. Ces deux civilisations contemporaines lui semblent en effet avoir peu d'événements en commun. Il décide de prendre comme point de repère l'Exode, et s'attache à retrouver cet évènement dans l'histoire de ces deux civilisations.
 Celui-ci ne doit pas passer inaperçu : l'Égypte est dévastée. Le peuple hébreu, réduit en esclavage, en profite pour s'enfuir ; il croise un autre peuple, en route vers l'Égypte, qu'il envahit et asservit, lui imposant une chape d'obscurantisme et d'oppression de plusieurs siècles.
 La version originale de son livre Le Désordre des siècles paraît en 1952 : il s'agit d'une critique de la chronologie officielle, il y aurait un décalage de sept siècles entre les événements relatés dans chacune des deux chronologies.
 Allant plus loin dans sa démonstration, l'Exode serait selon lui la conséquence d'une catastrophe planétaire, dont les traces se retrouveraient dans toutes les civilisations : la Chine (dynastie des Yao), la Polynésie, chez les Indiens d'Amérique du Nord comme du Sud, les peuplades du nord de l'Europe, les Celtes, en Inde et chez les aborigènes d'Australie. Il démontrerait ainsi l'universalité du cataclysme.
@@ -565,7 +619,7 @@
 Immanuel Velikosky attribue les causes de ces bouleversements à des influences extérieures : météorites, comètes, planètes. Lors de l'approche de ces corps, les tensions exercées sur l'écorce terrestre seraient énormes, allant jusqu'à entraîner le basculement des pôles : des montagnes auraient surgi alors que des régions entières s'effondraient, provoquant de gigantesques raz-de-marée ; les forêts primaires se sont embrasées et leur ensevelissement quasi immédiat pourrait être à l'origine de la formation du charbon ! Ces phénomènes, très intenses aux ères géologiques, ont été en diminuant. Les deux derniers bouleversements seraient situés, l'un aux alentours de 1 500 av. J.-C. (Exode), l'autre aux VIIIe – VIIe siècles av. J.-C. Pourtant, il est connu que l'échelle des temps géologiques n'a rien à voir avec l'échelle des temps historiques.
 Selon Velikosky, la nature tendant vers l'équilibre, les effets de toutes ces catastrophes iraient diminuant.
 Cette théorie, largement impossible en dépit de quelques arguments (notamment le fait que les astronomes babyloniens établirent plusieurs calendriers successifs différents et que seul le dernier corresponde à notre configuration du ciel, Vénus comprise), lui vaut les foudres de certains scientifiques. Victime d'un ostracisme généralisé durant les années cinquante et soixante, il connaîtra un certain retour en grâce dans les quelques années précédant son décès de par les découvertes des astronomes.
-Malgré l'absence manifeste de base physique à sa théorie, plusieurs idées émises par Velikovsky en 1950 sont aujourd'hui acceptées par la science : notamment l'importance des phénomènes catastrophiques dans l'histoire et l'évolution (par exemple, la disparition des dinosaures), ou bien encore que l'interaction électromagnétique joue un rôle non négligeable dans la dynamique des systèmes stellaires[réf. nécessaire]. Contrairement à ce qu'en disent les éditions récentes de Velikovsky, ces idées n'ont rien d'original, le catastrophisme par exemple est d'origine très ancienne[1].
+Malgré l'absence manifeste de base physique à sa théorie, plusieurs idées émises par Velikovsky en 1950 sont aujourd'hui acceptées par la science : notamment l'importance des phénomènes catastrophiques dans l'histoire et l'évolution (par exemple, la disparition des dinosaures), ou bien encore que l'interaction électromagnétique joue un rôle non négligeable dans la dynamique des systèmes stellaires[réf. nécessaire]. Contrairement à ce qu'en disent les éditions récentes de Velikovsky, ces idées n'ont rien d'original, le catastrophisme par exemple est d'origine très ancienne.
 Par ailleurs, certaines sources de Velikovsky sont aujourd'hui démontrées sans valeur. Les tablettes d'Amizadouga indiquent une révolution synodique globale de Vénus, identique à celle d'aujourd'hui, et ne sont que des copies erronées, et postérieures d'un millénaire des tablettes originales. Quant à Abraham Rockenbach, qui prétendait s'être fondé sur les sources les plus sûres et les plus anciennes, c'était un charlatan qui avait recopié sans discernement toutes les histoires de comètes qu'il avait pu trouver chez Conrad Lycosthenes, en inventant ce qui manquait.
 Au sujet de Velikovsky et celui de son bannissement de la communauté scientifique, le célèbre astronome Carl Sagan, qui fut l'un de ses principaux contradicteurs, dans le quatrième épisode de sa série Cosmos, aura les mots suivants : « Le plus navrant dans l'affaire Velikovsky n'est pas que ses idées aient été fantaisistes, discutables ou manifestement contraires aux faits. C'est que certains scientifiques aient essayé de le censurer. Si la mise à l'index d'idées dérangeantes est courante en religion ou en politique, ce n'est pas le chemin vers la connaissance et ce genre de pratique est indigne de la véritable science. Nous ne savons pas a priori d'où les prochaines découvertes fondamentales au sujet du système solaire proviendront et l'histoire montre clairement qu'à différentes époques, les idées les mieux acceptées ont souvent été fausses — et que les conceptions les plus révolutionnaires peuvent provenir de n'importe où. »
 Il remercie dans son œuvre Albert Einstein pour sa contribution. Ce dernier l'a beaucoup aidé, ils ont discuté jusqu'aux derniers jours d'Einstein, afin de débattre et de faire avancer les théories de Velikovsky.
@@ -574,40 +628,76 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Immanuel_Velikovsky</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Immanuel_Velikovsky</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mondes en collision (Worlds in Collision) (1950), Éd. le jardin des livres, 2004.
 Le Désordre des siècles (Ages in Chaos) (1952), Éd. le Jardin des Livres, 2006.
 Les Grands Bouleversements terrestres (Earth in Upheaveal) (1955), éditions Stock 1982 ; rééd. le Jardin des Livres, 2005.
 Œdipe et Akhénaton (Oedipus and Akhnaton) (1960), Éd. Robert Laffont, coll. « Les Énigmes de l'univers », 1999.
 Peoples of the Sea 1977 (Book club associates)
-Ramses II and his Time 1978 (Doubleday)
-Œuvres en ligne
-The Velikovsky Archive — Ensemble de travaux, y compris des manuscrits inédits, des enregistrements de conférences et un documentaire de 1972 de la Canadian Broadcasting Corporation</t>
+Ramses II and his Time 1978 (Doubleday)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Immanuel_Velikovsky</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immanuel_Velikovsky</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Œuvres en ligne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Velikovsky Archive — Ensemble de travaux, y compris des manuscrits inédits, des enregistrements de conférences et un documentaire de 1972 de la Canadian Broadcasting Corporation</t>
         </is>
       </c>
     </row>
